--- a/biology/Botanique/Oncostele/Oncostele.xlsx
+++ b/biology/Botanique/Oncostele/Oncostele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nothogenre Oncostele (abréviation: Ons.) est un genre hybride de plantes de la famille des Orchidaceae. Il est issu du croisement entre les genres Oncidium et Rhynchostele, tous deux appartenant à la sous-tribu des Oncidiinae.
-Certains cultivars sont parfois commercialisés sous le nom de Colmanara, mais le genre hybride × Colmanara est en fait un croisement entre les genres Miltonia, Odontoglossum et Oncidium[1],[2]. D'autres l'étaient sous le nom x Odontocidium (en) qui est lui un hybride entre Odontoglossum et Oncidium[3].
+Certains cultivars sont parfois commercialisés sous le nom de Colmanara, mais le genre hybride × Colmanara est en fait un croisement entre les genres Miltonia, Odontoglossum et Oncidium,. D'autres l'étaient sous le nom x Odontocidium (en) qui est lui un hybride entre Odontoglossum et Oncidium.
 Un exemple parmi tant d'autres est celui d' x Oncostele 'Wildcat' créé en 1992 sous le nom de x Colmanara 'Wildcat', renommé ensuite x Odontocidium 'Wildcat' avant que les progrès de la phylogénétique permettent de classer ce cultivar dans le genre x Oncostele en 2003.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Hybridation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Oncidium, Sw., (1800) x Rhynchostele, Rchb.f., Bot. Zeitung (Berlin) 10: 770 (1852).
 ⇒ x Oncostele, J.M.H.Shaw, Orchid Rev. 111(1254, Suppl.): 96 (2003).
@@ -545,7 +559,9 @@
           <t>Description et biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux genres botaniques sont originaires d'Amérique du Sud, le genre Oncidium se trouvant à l'état naturel en Amérique tropicale et subtropicale. Le genre Rhynchostele a une aire de répartition naturelle allant du Mexique au Nord-ouest du Vénézuela.
 Orchidée à pseudobulbe.
@@ -577,7 +593,9 @@
           <t>Quelques Cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hybrides primaires[N 1] :
 Ons. Black Beauty, Santa Barbara (1988) = Rst. bictoniense × Onc. leucochilum
